--- a/BackTest/2020-01-24 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-24 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4741,7 +4741,7 @@
         <v>-132471.9812</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-132471.9812</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-129237.8982</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-129237.8982</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-132787.0955</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-136803.2061</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-138863.0505</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-140859.9207</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-98470.2836000001</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-99661.7821000001</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-93119.2773000001</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-95112.42020000011</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-92551.1771000001</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-99095.0339000001</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-84958.9433000001</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-83950.1451000001</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-82515.1602000001</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-80954.9062000001</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-84196.6752000001</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-79570.23600000011</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-69619.36230000011</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-58335.39470000011</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-63635.01270000011</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-65580.2326000001</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-65580.2326000001</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-65580.2326000001</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-69980.44250000011</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-72625.0052000001</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-73150.00650000009</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-76873.48240000007</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-76216.92480000008</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-78897.89250000009</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-78897.89250000009</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-78897.89250000009</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-78897.89250000009</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-80813.25440000009</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-80813.25440000009</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-82050.16560000009</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-84213.43890000012</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-84480.60180000012</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-83946.27880000012</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-82675.86710000012</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-83391.70470000012</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-85839.31320000012</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-90367.32170000012</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-93506.65090000012</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-98634.31270000013</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-103716.0106000001</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-100424.1767000001</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-138594.5977000001</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-108048.4137652201</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-108048.4137652201</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-108048.4137652201</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-110252.3349652201</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-114257.4521697201</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-114257.4521697201</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-117423.5952697201</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-119257.2808697201</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-119257.2808697201</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-119257.2808697201</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-119257.2808697201</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-119257.2808697201</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-119257.2808697201</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-125068.8283697201</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-126903.8113697201</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-125538.9702697201</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-119063.4640697201</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-119063.4640697201</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-119063.4640697201</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-118256.4276697201</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-122215.4245697201</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-127009.7835697201</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-127009.7835697201</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-127009.7835697201</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-127009.7835697201</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-131551.6130697201</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-112593.0305697201</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-104913.4400697201</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-82678.38556972006</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-75425.94336972006</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-94141.80210956004</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-94141.80210956004</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-89924.38950956005</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-91739.03370956004</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-107587.63530956</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-92434.02780956004</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-94726.15370956004</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-96145.56240956004</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-101876.04560956</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-60443.98830956004</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-64005.85470956004</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-59471.29070956004</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-61756.99080956004</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-60432.26910956004</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-60432.26910956004</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-55974.50050956004</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-51073.95660956004</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-10937.30620956004</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-6411.34290956004</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-9565.36940956004</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-14295.00860956004</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-10607.76580956004</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-24874.47170956004</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-28185.37250956004</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-28185.37250956004</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-28185.37250956004</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-26248.96970956004</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-26248.96970956004</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-23956.69700956004</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-30597.44460956004</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-27973.60150956004</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>-26421.13160956004</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>-25070.32280956004</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>-23778.81360956004</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>-23778.81360956004</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>-23778.81360956004</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>-24213.95900956004</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>-20311.74340956004</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>-23247.63420956004</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>-20861.33900956004</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>-20861.33900956004</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>-31363.01250956004</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>-30537.38440956004</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>-34549.99530956004</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>-34549.99530956004</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>-34549.99530956004</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-36664.66520956004</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-35375.79230956004</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-30133.73860956004</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>-33895.33900956004</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-34952.13560956004</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>-40992.88700956004</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-43162.20390956004</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>-43162.20390956004</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-43162.20390956004</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-44291.29420956004</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>-47081.45220956005</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>-44003.37990956005</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-48280.55420956005</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>-52485.57025713005</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>-52485.57025713005</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-52485.57025713005</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-51839.96095713005</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>-56260.77085713005</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>-56260.77085713005</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-56260.77085713005</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>-59704.20765713006</v>
       </c>
       <c r="H1002" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-57520.93205713006</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>-50774.59605713005</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>-56086.15335713005</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>-56086.15335713005</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>-56086.15335713005</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>-56086.15335713005</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>-49858.02265713005</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>-49858.02265713005</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-49858.02265713005</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1014" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>-53902.52425713006</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>-57070.92935713005</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>-57070.92935713005</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>-57070.92935713005</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>-57070.92935713005</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>-58053.16635713005</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>-64795.32035713005</v>
       </c>
       <c r="H1026" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>-64795.32035713005</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>-67756.44815713006</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>-67756.44815713006</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>-65330.21835713006</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>-65330.21835713006</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>-65330.21835713006</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -40150,10 +40150,14 @@
         <v>-183208.8398571301</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
@@ -40183,11 +40187,19 @@
         <v>-186597.4945571301</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40216,11 +40228,19 @@
         <v>-183392.9008571301</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>217.3</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40249,11 +40269,19 @@
         <v>-178533.4279571301</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40282,11 +40310,19 @@
         <v>-181081.0013571301</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40315,11 +40351,19 @@
         <v>-181081.0013571301</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40348,11 +40392,19 @@
         <v>-181081.0013571301</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40381,11 +40433,19 @@
         <v>-181081.0013571301</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40414,11 +40474,19 @@
         <v>-181081.0013571301</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40447,11 +40515,19 @@
         <v>-182436.9906571301</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40480,11 +40556,19 @@
         <v>-182436.9906571301</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40513,11 +40597,19 @@
         <v>-182436.9906571301</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40546,11 +40638,19 @@
         <v>-182526.0432571301</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40579,11 +40679,19 @@
         <v>-182526.0432571301</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40612,11 +40720,19 @@
         <v>-182704.2233571301</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40645,11 +40761,19 @@
         <v>-182600.4530571301</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -40678,11 +40802,19 @@
         <v>-182867.6450571301</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40711,11 +40843,19 @@
         <v>-193122.0581571301</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -40744,15 +40884,17 @@
         <v>-188984.2427571301</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1223" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1223" t="n">
@@ -40783,10 +40925,14 @@
         <v>-187888.9067571301</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40820,10 +40966,14 @@
         <v>-175738.3293571301</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40857,10 +41007,14 @@
         <v>-177311.0642571301</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40894,10 +41048,14 @@
         <v>-172519.3186571301</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40931,10 +41089,14 @@
         <v>-175299.8010571301</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40968,10 +41130,14 @@
         <v>-165103.5212571301</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41005,10 +41171,14 @@
         <v>-165103.5212571301</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41042,10 +41212,14 @@
         <v>-167621.4336571301</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41082,7 +41256,9 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41116,12 +41292,14 @@
         <v>-171016.0123571301</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1233" t="n">
         <v>217.5</v>
       </c>
-      <c r="J1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41155,10 +41333,14 @@
         <v>-174632.8086571301</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41192,12 +41374,14 @@
         <v>-174632.8086571301</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1235" t="n">
         <v>217.6</v>
       </c>
-      <c r="J1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41231,12 +41415,14 @@
         <v>-174632.8086571301</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1236" t="n">
         <v>217.6</v>
       </c>
-      <c r="J1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41270,10 +41456,14 @@
         <v>-174632.8086571301</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41307,12 +41497,14 @@
         <v>-172417.5449571301</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1238" t="n">
         <v>217.6</v>
       </c>
-      <c r="J1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41346,12 +41538,12 @@
         <v>-172417.5449571301</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41385,12 +41577,12 @@
         <v>-172417.5449571301</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41424,12 +41616,12 @@
         <v>-172417.5449571301</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41466,7 +41658,9 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41503,7 +41697,9 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41540,7 +41736,9 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41574,10 +41772,14 @@
         <v>-177389.4992571301</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41614,7 +41816,9 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
+      <c r="J1246" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41651,7 +41855,9 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
+      <c r="J1247" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41688,7 +41894,9 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41725,7 +41933,9 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41762,7 +41972,9 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41799,7 +42011,9 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41833,12 +42047,12 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41872,12 +42086,12 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41911,12 +42125,12 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41950,12 +42164,12 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41989,12 +42203,12 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42028,12 +42242,14 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1257" t="n">
         <v>217.6</v>
       </c>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42067,12 +42283,14 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1258" t="n">
         <v>217.6</v>
       </c>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42106,12 +42324,14 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1259" t="n">
         <v>217.6</v>
       </c>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42145,12 +42365,14 @@
         <v>-178571.3124571301</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1260" t="n">
         <v>217.6</v>
       </c>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42184,12 +42406,14 @@
         <v>-164529.0912571301</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1261" t="n">
         <v>217.5</v>
       </c>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42223,12 +42447,14 @@
         <v>-164529.0912571301</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1262" t="n">
         <v>217.6</v>
       </c>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42262,12 +42488,12 @@
         <v>-164529.0912571301</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42301,12 +42527,12 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42340,12 +42566,14 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1265" t="n">
         <v>217.5</v>
       </c>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42379,12 +42607,14 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1266" t="n">
         <v>217.5</v>
       </c>
-      <c r="J1266" t="inlineStr"/>
+      <c r="J1266" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42418,12 +42648,14 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1267" t="n">
         <v>217.5</v>
       </c>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42457,12 +42689,14 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1268" t="n">
         <v>217.5</v>
       </c>
-      <c r="J1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42496,12 +42730,14 @@
         <v>-165419.8376571301</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1269" t="n">
         <v>217.5</v>
       </c>
-      <c r="J1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42535,12 +42771,14 @@
         <v>-166305.0719571301</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1270" t="n">
         <v>217.4</v>
       </c>
-      <c r="J1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42574,12 +42812,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1271" t="n">
         <v>217.3</v>
       </c>
-      <c r="J1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42613,12 +42853,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1272" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42652,12 +42894,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1273" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42691,12 +42935,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1274" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42730,12 +42976,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1275" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42769,12 +43017,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1276" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42808,12 +43058,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1277" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42847,12 +43099,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1278" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1278" t="inlineStr"/>
+      <c r="J1278" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42886,12 +43140,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1279" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42925,12 +43181,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1280" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1280" t="inlineStr"/>
+      <c r="J1280" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42964,12 +43222,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1281" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1281" t="inlineStr"/>
+      <c r="J1281" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43003,12 +43263,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1282" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43042,12 +43304,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1283" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43081,12 +43345,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1284" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43120,12 +43386,14 @@
         <v>-167693.4246571301</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1285" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43159,12 +43427,14 @@
         <v>-165296.0776571301</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1286" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43198,12 +43468,14 @@
         <v>-165296.0776571301</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1287" t="n">
         <v>217.3</v>
       </c>
-      <c r="J1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43237,12 +43509,14 @@
         <v>-166640.3044571301</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1288" t="n">
         <v>217.3</v>
       </c>
-      <c r="J1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43276,12 +43550,14 @@
         <v>-166640.3044571301</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1289" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43315,12 +43591,14 @@
         <v>-166640.3044571301</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1290" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43354,12 +43632,14 @@
         <v>-166640.3044571301</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1291" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43393,12 +43673,14 @@
         <v>-166640.3044571301</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1292" t="n">
         <v>217.2</v>
       </c>
-      <c r="J1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>217.5</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43410,6 +43692,6 @@
       <c r="M1292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-24 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -15037,7 +15037,7 @@
         <v>-65580.2326000001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-69980.44250000011</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-72625.0052000001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-75818.6004000001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-79494.1045000001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-86201.55540000016</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-84383.97720000015</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-89899.68430000015</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-92793.33010000017</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-98833.46640000016</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-69158.96173964006</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-62030.86303964005</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-99732.66160956005</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-94141.80210956004</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-94141.80210956004</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-89924.38950956005</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-8231.349809560041</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-13310.14450956004</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-18355.11850956004</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-18535.34970956004</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-28185.37250956004</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-28185.37250956004</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-28185.37250956004</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-26248.96970956004</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-26248.96970956004</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-23956.69700956004</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-30597.44460956004</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-27973.60150956004</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>-26421.13160956004</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>-25070.32280956004</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>-23778.81360956004</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>-23778.81360956004</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>-23778.81360956004</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>-24213.95900956004</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>-20311.74340956004</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>-23247.63420956004</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>-20861.33900956004</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>-20861.33900956004</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>-31363.01250956004</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>-30537.38440956004</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>-34549.99530956004</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>-34549.99530956004</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>-34549.99530956004</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-36664.66520956004</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-35375.79230956004</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-30133.73860956004</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>-33895.33900956004</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-34952.13560956004</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>-40992.88700956004</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-43162.20390956004</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>-43162.20390956004</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-43162.20390956004</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-41657.45160956004</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-44291.29420956004</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>-47081.45220956005</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>-44003.37990956005</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-48280.55420956005</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>-52485.57025713005</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>-52485.57025713005</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-52485.57025713005</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-51839.96095713005</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>-56260.77085713005</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>-56260.77085713005</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-56260.77085713005</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>-59704.20765713006</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-57520.93205713006</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>-50774.59605713005</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>-56086.15335713005</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>-56086.15335713005</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>-56086.15335713005</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>-56086.15335713005</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>-49858.02265713005</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>-49858.02265713005</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-49858.02265713005</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>-53743.04825713005</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>-53902.52425713006</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>-57070.92935713005</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>-57070.92935713005</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>-57070.92935713005</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>-57070.92935713005</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>-58053.16635713005</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>-64795.32035713005</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>-64795.32035713005</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>-67756.44815713006</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>-67756.44815713006</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>-65330.21835713006</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>-65330.21835713006</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>-65330.21835713006</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -40150,14 +40150,10 @@
         <v>-183208.8398571301</v>
       </c>
       <c r="H1205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1205" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="J1205" t="n">
-        <v>217.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
@@ -40187,1877 +40183,1541 @@
         <v>-186597.4945571301</v>
       </c>
       <c r="H1206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
+      <c r="J1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr"/>
+      <c r="L1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>3204.5937</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>-183392.9008571301</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1207" t="inlineStr"/>
+      <c r="J1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr"/>
+      <c r="L1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>4859.4729</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>-178533.4279571301</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
+      <c r="J1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr"/>
+      <c r="L1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>2547.5734</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>-181081.0013571301</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
+      <c r="J1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr"/>
+      <c r="L1209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>1233.9175</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>-181081.0013571301</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
+      <c r="J1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr"/>
+      <c r="L1210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>697.0916999999999</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>-181081.0013571301</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
+      <c r="J1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr"/>
+      <c r="L1211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>2166.9186</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>-181081.0013571301</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
+      <c r="J1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr"/>
+      <c r="L1212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1925.2665</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>-181081.0013571301</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1213" t="inlineStr"/>
+      <c r="J1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr"/>
+      <c r="L1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1355.9893</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>-182436.9906571301</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr"/>
+      <c r="J1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr"/>
+      <c r="L1214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1193.0057</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>-182436.9906571301</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1215" t="inlineStr"/>
+      <c r="J1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr"/>
+      <c r="L1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1835.9042</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>-182436.9906571301</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1216" t="inlineStr"/>
+      <c r="J1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr"/>
+      <c r="L1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>89.0526</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>-182526.0432571301</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
+      <c r="J1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr"/>
+      <c r="L1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3641.5686</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>-182526.0432571301</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
+      <c r="J1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr"/>
+      <c r="L1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1219" t="n">
         <v>217.5</v>
       </c>
-      <c r="J1206" t="n">
+      <c r="C1219" t="n">
         <v>217.5</v>
       </c>
-      <c r="K1206" t="inlineStr">
+      <c r="D1219" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>178.1801</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>-182704.2233571301</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
+      <c r="J1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr"/>
+      <c r="L1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>103.7703</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>-182600.4530571301</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1220" t="inlineStr"/>
+      <c r="J1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr"/>
+      <c r="L1220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>267.192</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>-182867.6450571301</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1221" t="inlineStr"/>
+      <c r="J1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr"/>
+      <c r="L1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>217.2</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>217.1</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>10254.4131</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>-193122.0581571301</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1222" t="inlineStr"/>
+      <c r="J1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr"/>
+      <c r="L1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>217.3</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>217.2</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>4137.8154</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>-188984.2427571301</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1223" t="inlineStr"/>
+      <c r="J1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr"/>
+      <c r="L1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>217.3</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1095.336</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>-187888.9067571301</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1224" t="inlineStr"/>
+      <c r="J1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr"/>
+      <c r="L1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>12150.5774</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>-175738.3293571301</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1225" t="inlineStr"/>
+      <c r="J1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr"/>
+      <c r="L1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1572.7349</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>-177311.0642571301</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1226" t="inlineStr"/>
+      <c r="J1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr"/>
+      <c r="L1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>4791.7456</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>-172519.3186571301</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1227" t="inlineStr"/>
+      <c r="J1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr"/>
+      <c r="L1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2780.4824</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>-175299.8010571301</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1228" t="inlineStr"/>
+      <c r="J1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr"/>
+      <c r="L1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>10196.2798</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>-165103.5212571301</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1229" t="inlineStr"/>
+      <c r="J1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr"/>
+      <c r="L1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1544.7578</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>-165103.5212571301</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
+      <c r="J1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr"/>
+      <c r="L1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2517.9124</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>-167621.4336571301</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
+      <c r="J1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr"/>
+      <c r="L1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>5643.3276</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>-173264.7612571301</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
+      <c r="J1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr"/>
+      <c r="L1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2248.7489</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>-171016.0123571301</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
+      <c r="J1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr"/>
+      <c r="L1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>3616.7963</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>-174632.8086571301</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
+      <c r="J1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr"/>
+      <c r="L1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1945.8241</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>-174632.8086571301</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
+      <c r="J1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr"/>
+      <c r="L1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>3587.0073</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>-174632.8086571301</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
+      <c r="J1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr"/>
+      <c r="L1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2157.2401</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>-174632.8086571301</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
+      <c r="J1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr"/>
+      <c r="L1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2215.2637</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>-172417.5449571301</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
+      <c r="J1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr"/>
+      <c r="L1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>3005.8548</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>-172417.5449571301</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
+      <c r="J1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr"/>
+      <c r="L1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>3392.5929</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>-172417.5449571301</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
+      <c r="J1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr"/>
+      <c r="L1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1260.6784</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>-172417.5449571301</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
+      <c r="J1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr"/>
+      <c r="L1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>2159.1221</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>-170258.4228571301</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
+      <c r="J1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr"/>
+      <c r="L1242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>1927.5728</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>-170258.4228571301</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
+      <c r="J1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr"/>
+      <c r="L1243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>218</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>218</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>5050.0181</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>-175308.4409571301</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
+      <c r="J1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr"/>
+      <c r="L1244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>2081.0583</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>-177389.4992571301</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
+      <c r="J1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr"/>
+      <c r="L1245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>1351.003</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>-177389.4992571301</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
+      <c r="J1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr"/>
+      <c r="L1246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>1447.5602</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>-177389.4992571301</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
+      <c r="J1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr"/>
+      <c r="L1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>178.0881</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>-177389.4992571301</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
+      <c r="J1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr"/>
+      <c r="L1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>267.1801</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>-177389.4992571301</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
+      <c r="J1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr"/>
+      <c r="L1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>1248</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>1002.2767</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>-178391.7759571301</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
+      <c r="J1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr"/>
+      <c r="L1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>178.1457</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>-178391.7759571301</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1251" t="inlineStr"/>
+      <c r="L1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>3107.0878</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>-178391.7759571301</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1252" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" s="1" t="n">
-        <v>1205</v>
-      </c>
-      <c r="B1207" t="n">
-        <v>217.4</v>
-      </c>
-      <c r="C1207" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1207" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1207" t="n">
-        <v>217.4</v>
-      </c>
-      <c r="F1207" t="n">
-        <v>3204.5937</v>
-      </c>
-      <c r="G1207" t="n">
-        <v>-183392.9008571301</v>
-      </c>
-      <c r="H1207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1207" t="n">
-        <v>217.3</v>
-      </c>
-      <c r="J1207" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1207" t="inlineStr"/>
-    </row>
-    <row r="1208">
-      <c r="A1208" s="1" t="n">
-        <v>1206</v>
-      </c>
-      <c r="B1208" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="C1208" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="D1208" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="E1208" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="F1208" t="n">
-        <v>4859.4729</v>
-      </c>
-      <c r="G1208" t="n">
-        <v>-178533.4279571301</v>
-      </c>
-      <c r="H1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1208" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" s="1" t="n">
-        <v>1207</v>
-      </c>
-      <c r="B1209" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="C1209" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D1209" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="E1209" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="F1209" t="n">
-        <v>2547.5734</v>
-      </c>
-      <c r="G1209" t="n">
-        <v>-181081.0013571301</v>
-      </c>
-      <c r="H1209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="J1209" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1209" t="inlineStr"/>
-    </row>
-    <row r="1210">
-      <c r="A1210" s="1" t="n">
-        <v>1208</v>
-      </c>
-      <c r="B1210" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="C1210" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D1210" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="E1210" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="F1210" t="n">
-        <v>1233.9175</v>
-      </c>
-      <c r="G1210" t="n">
-        <v>-181081.0013571301</v>
-      </c>
-      <c r="H1210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="J1210" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1210" t="inlineStr"/>
-    </row>
-    <row r="1211">
-      <c r="A1211" s="1" t="n">
-        <v>1209</v>
-      </c>
-      <c r="B1211" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="C1211" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D1211" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="E1211" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="F1211" t="n">
-        <v>697.0916999999999</v>
-      </c>
-      <c r="G1211" t="n">
-        <v>-181081.0013571301</v>
-      </c>
-      <c r="H1211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="J1211" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1211" t="inlineStr"/>
-    </row>
-    <row r="1212">
-      <c r="A1212" s="1" t="n">
-        <v>1210</v>
-      </c>
-      <c r="B1212" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="C1212" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D1212" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="E1212" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="F1212" t="n">
-        <v>2166.9186</v>
-      </c>
-      <c r="G1212" t="n">
-        <v>-181081.0013571301</v>
-      </c>
-      <c r="H1212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="J1212" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1212" t="inlineStr"/>
-    </row>
-    <row r="1213">
-      <c r="A1213" s="1" t="n">
-        <v>1211</v>
-      </c>
-      <c r="B1213" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="C1213" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D1213" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="E1213" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="F1213" t="n">
-        <v>1925.2665</v>
-      </c>
-      <c r="G1213" t="n">
-        <v>-181081.0013571301</v>
-      </c>
-      <c r="H1213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1213" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="J1213" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1213" t="inlineStr"/>
-    </row>
-    <row r="1214">
-      <c r="A1214" s="1" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B1214" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="C1214" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1214" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="E1214" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1214" t="n">
-        <v>1355.9893</v>
-      </c>
-      <c r="G1214" t="n">
-        <v>-182436.9906571301</v>
-      </c>
-      <c r="H1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1214" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="J1214" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1214" t="inlineStr"/>
-    </row>
-    <row r="1215">
-      <c r="A1215" s="1" t="n">
-        <v>1213</v>
-      </c>
-      <c r="B1215" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1215" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1215" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1215" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1215" t="n">
-        <v>1193.0057</v>
-      </c>
-      <c r="G1215" t="n">
-        <v>-182436.9906571301</v>
-      </c>
-      <c r="H1215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1215" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1215" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1215" t="inlineStr"/>
-    </row>
-    <row r="1216">
-      <c r="A1216" s="1" t="n">
-        <v>1214</v>
-      </c>
-      <c r="B1216" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1216" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1216" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1216" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1216" t="n">
-        <v>1835.9042</v>
-      </c>
-      <c r="G1216" t="n">
-        <v>-182436.9906571301</v>
-      </c>
-      <c r="H1216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1216" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1216" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" s="1" t="n">
-        <v>1215</v>
-      </c>
-      <c r="B1217" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1217" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1217" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1217" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1217" t="n">
-        <v>89.0526</v>
-      </c>
-      <c r="G1217" t="n">
-        <v>-182526.0432571301</v>
-      </c>
-      <c r="H1217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1217" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1217" t="inlineStr"/>
-    </row>
-    <row r="1218">
-      <c r="A1218" s="1" t="n">
-        <v>1216</v>
-      </c>
-      <c r="B1218" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1218" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1218" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1218" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1218" t="n">
-        <v>3641.5686</v>
-      </c>
-      <c r="G1218" t="n">
-        <v>-182526.0432571301</v>
-      </c>
-      <c r="H1218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1218" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1218" t="inlineStr"/>
-    </row>
-    <row r="1219">
-      <c r="A1219" s="1" t="n">
-        <v>1217</v>
-      </c>
-      <c r="B1219" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1219" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="D1219" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="E1219" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="F1219" t="n">
-        <v>178.1801</v>
-      </c>
-      <c r="G1219" t="n">
-        <v>-182704.2233571301</v>
-      </c>
-      <c r="H1219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1219" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1219" t="inlineStr"/>
-    </row>
-    <row r="1220">
-      <c r="A1220" s="1" t="n">
-        <v>1218</v>
-      </c>
-      <c r="B1220" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1220" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1220" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1220" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="F1220" t="n">
-        <v>103.7703</v>
-      </c>
-      <c r="G1220" t="n">
-        <v>-182600.4530571301</v>
-      </c>
-      <c r="H1220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1220" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="J1220" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1220" t="inlineStr"/>
-    </row>
-    <row r="1221">
-      <c r="A1221" s="1" t="n">
-        <v>1219</v>
-      </c>
-      <c r="B1221" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1221" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="D1221" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="E1221" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="F1221" t="n">
-        <v>267.192</v>
-      </c>
-      <c r="G1221" t="n">
-        <v>-182867.6450571301</v>
-      </c>
-      <c r="H1221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1221" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1221" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1221" t="inlineStr"/>
-    </row>
-    <row r="1222">
-      <c r="A1222" s="1" t="n">
-        <v>1220</v>
-      </c>
-      <c r="B1222" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1222" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="D1222" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="E1222" t="n">
-        <v>217.1</v>
-      </c>
-      <c r="F1222" t="n">
-        <v>10254.4131</v>
-      </c>
-      <c r="G1222" t="n">
-        <v>-193122.0581571301</v>
-      </c>
-      <c r="H1222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1222" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="J1222" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1222" t="inlineStr"/>
-    </row>
-    <row r="1223">
-      <c r="A1223" s="1" t="n">
-        <v>1221</v>
-      </c>
-      <c r="B1223" t="n">
-        <v>217.3</v>
-      </c>
-      <c r="C1223" t="n">
-        <v>217.4</v>
-      </c>
-      <c r="D1223" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1223" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="F1223" t="n">
-        <v>4137.8154</v>
-      </c>
-      <c r="G1223" t="n">
-        <v>-188984.2427571301</v>
-      </c>
-      <c r="H1223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1223" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="J1223" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1223" t="inlineStr"/>
-    </row>
-    <row r="1224">
-      <c r="A1224" s="1" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B1224" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1224" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1224" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1224" t="n">
-        <v>217.3</v>
-      </c>
-      <c r="F1224" t="n">
-        <v>1095.336</v>
-      </c>
-      <c r="G1224" t="n">
-        <v>-187888.9067571301</v>
-      </c>
-      <c r="H1224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1224" t="n">
-        <v>217.4</v>
-      </c>
-      <c r="J1224" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1224" t="inlineStr"/>
-    </row>
-    <row r="1225">
-      <c r="A1225" s="1" t="n">
-        <v>1223</v>
-      </c>
-      <c r="B1225" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="C1225" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D1225" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="E1225" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1225" t="n">
-        <v>12150.5774</v>
-      </c>
-      <c r="G1225" t="n">
-        <v>-175738.3293571301</v>
-      </c>
-      <c r="H1225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1225" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1225" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1225" t="inlineStr"/>
-    </row>
-    <row r="1226">
-      <c r="A1226" s="1" t="n">
-        <v>1224</v>
-      </c>
-      <c r="B1226" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1226" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1226" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1226" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1226" t="n">
-        <v>1572.7349</v>
-      </c>
-      <c r="G1226" t="n">
-        <v>-177311.0642571301</v>
-      </c>
-      <c r="H1226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1226" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="J1226" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1226" t="inlineStr"/>
-    </row>
-    <row r="1227">
-      <c r="A1227" s="1" t="n">
-        <v>1225</v>
-      </c>
-      <c r="B1227" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1227" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1227" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1227" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1227" t="n">
-        <v>4791.7456</v>
-      </c>
-      <c r="G1227" t="n">
-        <v>-172519.3186571301</v>
-      </c>
-      <c r="H1227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1227" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1227" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1227" t="inlineStr"/>
-    </row>
-    <row r="1228">
-      <c r="A1228" s="1" t="n">
-        <v>1226</v>
-      </c>
-      <c r="B1228" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1228" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1228" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1228" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1228" t="n">
-        <v>2780.4824</v>
-      </c>
-      <c r="G1228" t="n">
-        <v>-175299.8010571301</v>
-      </c>
-      <c r="H1228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1228" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1228" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" s="1" t="n">
-        <v>1227</v>
-      </c>
-      <c r="B1229" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1229" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1229" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1229" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="F1229" t="n">
-        <v>10196.2798</v>
-      </c>
-      <c r="G1229" t="n">
-        <v>-165103.5212571301</v>
-      </c>
-      <c r="H1229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1229" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1229" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" s="1" t="n">
-        <v>1228</v>
-      </c>
-      <c r="B1230" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1230" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1230" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1230" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1230" t="n">
-        <v>1544.7578</v>
-      </c>
-      <c r="G1230" t="n">
-        <v>-165103.5212571301</v>
-      </c>
-      <c r="H1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1230" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1230" t="inlineStr"/>
-    </row>
-    <row r="1231">
-      <c r="A1231" s="1" t="n">
-        <v>1229</v>
-      </c>
-      <c r="B1231" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1231" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1231" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1231" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="F1231" t="n">
-        <v>2517.9124</v>
-      </c>
-      <c r="G1231" t="n">
-        <v>-167621.4336571301</v>
-      </c>
-      <c r="H1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1231" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" s="1" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B1232" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1232" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="D1232" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1232" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="F1232" t="n">
-        <v>5643.3276</v>
-      </c>
-      <c r="G1232" t="n">
-        <v>-173264.7612571301</v>
-      </c>
-      <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1232" t="inlineStr"/>
-    </row>
-    <row r="1233">
-      <c r="A1233" s="1" t="n">
-        <v>1231</v>
-      </c>
-      <c r="B1233" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1233" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1233" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1233" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="F1233" t="n">
-        <v>2248.7489</v>
-      </c>
-      <c r="G1233" t="n">
-        <v>-171016.0123571301</v>
-      </c>
-      <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="J1233" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1233" t="inlineStr"/>
-    </row>
-    <row r="1234">
-      <c r="A1234" s="1" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B1234" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1234" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1234" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1234" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1234" t="n">
-        <v>3616.7963</v>
-      </c>
-      <c r="G1234" t="n">
-        <v>-174632.8086571301</v>
-      </c>
-      <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="J1234" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1234" t="inlineStr"/>
-    </row>
-    <row r="1235">
-      <c r="A1235" s="1" t="n">
-        <v>1233</v>
-      </c>
-      <c r="B1235" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1235" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1235" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1235" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1235" t="n">
-        <v>1945.8241</v>
-      </c>
-      <c r="G1235" t="n">
-        <v>-174632.8086571301</v>
-      </c>
-      <c r="H1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1235" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1235" t="inlineStr"/>
-    </row>
-    <row r="1236">
-      <c r="A1236" s="1" t="n">
-        <v>1234</v>
-      </c>
-      <c r="B1236" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="C1236" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1236" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1236" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="F1236" t="n">
-        <v>3587.0073</v>
-      </c>
-      <c r="G1236" t="n">
-        <v>-174632.8086571301</v>
-      </c>
-      <c r="H1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1236" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1236" t="inlineStr"/>
-    </row>
-    <row r="1237">
-      <c r="A1237" s="1" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B1237" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1237" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1237" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1237" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1237" t="n">
-        <v>2157.2401</v>
-      </c>
-      <c r="G1237" t="n">
-        <v>-174632.8086571301</v>
-      </c>
-      <c r="H1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1237" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" s="1" t="n">
-        <v>1236</v>
-      </c>
-      <c r="B1238" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1238" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1238" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1238" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1238" t="n">
-        <v>2215.2637</v>
-      </c>
-      <c r="G1238" t="n">
-        <v>-172417.5449571301</v>
-      </c>
-      <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="J1238" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1238" t="inlineStr"/>
-    </row>
-    <row r="1239">
-      <c r="A1239" s="1" t="n">
-        <v>1237</v>
-      </c>
-      <c r="B1239" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1239" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1239" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1239" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1239" t="n">
-        <v>3005.8548</v>
-      </c>
-      <c r="G1239" t="n">
-        <v>-172417.5449571301</v>
-      </c>
-      <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1239" t="inlineStr"/>
-    </row>
-    <row r="1240">
-      <c r="A1240" s="1" t="n">
-        <v>1238</v>
-      </c>
-      <c r="B1240" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1240" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1240" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1240" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1240" t="n">
-        <v>3392.5929</v>
-      </c>
-      <c r="G1240" t="n">
-        <v>-172417.5449571301</v>
-      </c>
-      <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1240" t="inlineStr"/>
-    </row>
-    <row r="1241">
-      <c r="A1241" s="1" t="n">
-        <v>1239</v>
-      </c>
-      <c r="B1241" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1241" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1241" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1241" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1241" t="n">
-        <v>1260.6784</v>
-      </c>
-      <c r="G1241" t="n">
-        <v>-172417.5449571301</v>
-      </c>
-      <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1241" t="inlineStr"/>
-    </row>
-    <row r="1242">
-      <c r="A1242" s="1" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B1242" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1242" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="D1242" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="E1242" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1242" t="n">
-        <v>2159.1221</v>
-      </c>
-      <c r="G1242" t="n">
-        <v>-170258.4228571301</v>
-      </c>
-      <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1242" t="inlineStr"/>
-    </row>
-    <row r="1243">
-      <c r="A1243" s="1" t="n">
-        <v>1241</v>
-      </c>
-      <c r="B1243" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="C1243" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="D1243" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="E1243" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="F1243" t="n">
-        <v>1927.5728</v>
-      </c>
-      <c r="G1243" t="n">
-        <v>-170258.4228571301</v>
-      </c>
-      <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1243" t="inlineStr"/>
-    </row>
-    <row r="1244">
-      <c r="A1244" s="1" t="n">
-        <v>1242</v>
-      </c>
-      <c r="B1244" t="n">
-        <v>218</v>
-      </c>
-      <c r="C1244" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="D1244" t="n">
-        <v>218</v>
-      </c>
-      <c r="E1244" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1244" t="n">
-        <v>5050.0181</v>
-      </c>
-      <c r="G1244" t="n">
-        <v>-175308.4409571301</v>
-      </c>
-      <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1244" t="inlineStr"/>
-    </row>
-    <row r="1245">
-      <c r="A1245" s="1" t="n">
-        <v>1243</v>
-      </c>
-      <c r="B1245" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1245" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1245" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1245" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1245" t="n">
-        <v>2081.0583</v>
-      </c>
-      <c r="G1245" t="n">
-        <v>-177389.4992571301</v>
-      </c>
-      <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="J1245" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1245" t="inlineStr"/>
-    </row>
-    <row r="1246">
-      <c r="A1246" s="1" t="n">
-        <v>1244</v>
-      </c>
-      <c r="B1246" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1246" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1246" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1246" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1246" t="n">
-        <v>1351.003</v>
-      </c>
-      <c r="G1246" t="n">
-        <v>-177389.4992571301</v>
-      </c>
-      <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1246" t="inlineStr"/>
-    </row>
-    <row r="1247">
-      <c r="A1247" s="1" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B1247" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1247" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1247" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1247" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1247" t="n">
-        <v>1447.5602</v>
-      </c>
-      <c r="G1247" t="n">
-        <v>-177389.4992571301</v>
-      </c>
-      <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1247" t="inlineStr"/>
-    </row>
-    <row r="1248">
-      <c r="A1248" s="1" t="n">
-        <v>1246</v>
-      </c>
-      <c r="B1248" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1248" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1248" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1248" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1248" t="n">
-        <v>178.0881</v>
-      </c>
-      <c r="G1248" t="n">
-        <v>-177389.4992571301</v>
-      </c>
-      <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1248" t="inlineStr"/>
-    </row>
-    <row r="1249">
-      <c r="A1249" s="1" t="n">
-        <v>1247</v>
-      </c>
-      <c r="B1249" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1249" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="D1249" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1249" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="F1249" t="n">
-        <v>267.1801</v>
-      </c>
-      <c r="G1249" t="n">
-        <v>-177389.4992571301</v>
-      </c>
-      <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1249" t="inlineStr"/>
-    </row>
-    <row r="1250">
-      <c r="A1250" s="1" t="n">
-        <v>1248</v>
-      </c>
-      <c r="B1250" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="C1250" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1250" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1250" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1250" t="n">
-        <v>1002.2767</v>
-      </c>
-      <c r="G1250" t="n">
-        <v>-178391.7759571301</v>
-      </c>
-      <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1250" t="inlineStr"/>
-    </row>
-    <row r="1251">
-      <c r="A1251" s="1" t="n">
-        <v>1249</v>
-      </c>
-      <c r="B1251" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1251" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1251" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E1251" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1251" t="n">
-        <v>178.1457</v>
-      </c>
-      <c r="G1251" t="n">
-        <v>-178391.7759571301</v>
-      </c>
-      <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1251" t="inlineStr"/>
-    </row>
-    <row r="1252">
-      <c r="A1252" s="1" t="n">
-        <v>1250</v>
-      </c>
-      <c r="B1252" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="C1252" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="D1252" t="n">
-        <v>217.7</v>
-      </c>
-      <c r="E1252" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="F1252" t="n">
-        <v>3107.0878</v>
-      </c>
-      <c r="G1252" t="n">
-        <v>-178391.7759571301</v>
-      </c>
-      <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42086,11 +41746,13 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>217.6</v>
+      </c>
       <c r="J1253" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42125,11 +41787,13 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>217.6</v>
+      </c>
       <c r="J1254" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -42164,11 +41828,13 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>217.6</v>
+      </c>
       <c r="J1255" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42203,11 +41869,13 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>217.6</v>
+      </c>
       <c r="J1256" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42248,7 +41916,7 @@
         <v>217.6</v>
       </c>
       <c r="J1257" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42289,7 +41957,7 @@
         <v>217.6</v>
       </c>
       <c r="J1258" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42330,7 +41998,7 @@
         <v>217.6</v>
       </c>
       <c r="J1259" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -42371,7 +42039,7 @@
         <v>217.6</v>
       </c>
       <c r="J1260" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42412,7 +42080,7 @@
         <v>217.5</v>
       </c>
       <c r="J1261" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42453,7 +42121,7 @@
         <v>217.6</v>
       </c>
       <c r="J1262" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -42488,11 +42156,13 @@
         <v>-164529.0912571301</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>217.6</v>
+      </c>
       <c r="J1263" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -42527,11 +42197,13 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>217.6</v>
+      </c>
       <c r="J1264" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -42572,7 +42244,7 @@
         <v>217.5</v>
       </c>
       <c r="J1265" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -42613,7 +42285,7 @@
         <v>217.5</v>
       </c>
       <c r="J1266" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -42654,7 +42326,7 @@
         <v>217.5</v>
       </c>
       <c r="J1267" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -42695,7 +42367,7 @@
         <v>217.5</v>
       </c>
       <c r="J1268" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -42736,7 +42408,7 @@
         <v>217.5</v>
       </c>
       <c r="J1269" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -42777,7 +42449,7 @@
         <v>217.4</v>
       </c>
       <c r="J1270" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -42818,7 +42490,7 @@
         <v>217.3</v>
       </c>
       <c r="J1271" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -42859,7 +42531,7 @@
         <v>217.2</v>
       </c>
       <c r="J1272" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -42900,7 +42572,7 @@
         <v>217.2</v>
       </c>
       <c r="J1273" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -42941,7 +42613,7 @@
         <v>217.2</v>
       </c>
       <c r="J1274" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -42982,7 +42654,7 @@
         <v>217.2</v>
       </c>
       <c r="J1275" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -43023,7 +42695,7 @@
         <v>217.2</v>
       </c>
       <c r="J1276" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -43064,7 +42736,7 @@
         <v>217.2</v>
       </c>
       <c r="J1277" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -43105,7 +42777,7 @@
         <v>217.2</v>
       </c>
       <c r="J1278" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -43146,7 +42818,7 @@
         <v>217.2</v>
       </c>
       <c r="J1279" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -43187,7 +42859,7 @@
         <v>217.2</v>
       </c>
       <c r="J1280" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43228,7 +42900,7 @@
         <v>217.2</v>
       </c>
       <c r="J1281" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43269,7 +42941,7 @@
         <v>217.2</v>
       </c>
       <c r="J1282" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43310,7 +42982,7 @@
         <v>217.2</v>
       </c>
       <c r="J1283" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43351,7 +43023,7 @@
         <v>217.2</v>
       </c>
       <c r="J1284" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -43392,7 +43064,7 @@
         <v>217.2</v>
       </c>
       <c r="J1285" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43433,7 +43105,7 @@
         <v>217.2</v>
       </c>
       <c r="J1286" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43474,7 +43146,7 @@
         <v>217.3</v>
       </c>
       <c r="J1287" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43515,7 +43187,7 @@
         <v>217.3</v>
       </c>
       <c r="J1288" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43556,7 +43228,7 @@
         <v>217.2</v>
       </c>
       <c r="J1289" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43597,7 +43269,7 @@
         <v>217.2</v>
       </c>
       <c r="J1290" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43638,7 +43310,7 @@
         <v>217.2</v>
       </c>
       <c r="J1291" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43679,7 +43351,7 @@
         <v>217.2</v>
       </c>
       <c r="J1292" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43692,6 +43364,6 @@
       <c r="M1292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-24 BackTest LUNA.xlsx
@@ -15037,7 +15037,7 @@
         <v>-65580.2326000001</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-69980.44250000011</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-72625.0052000001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-75818.6004000001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-79494.1045000001</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-86201.55540000016</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-84383.97720000015</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-89899.68430000015</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-92793.33010000017</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-98833.46640000016</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-69158.96173964006</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-62030.86303964005</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-94141.80210956004</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-89924.38950956005</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-91739.03370956004</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-107587.63530956</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-102314.02830956</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-92434.02780956004</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-9565.36940956004</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-14295.00860956004</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-8231.349809560041</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-13310.14450956004</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-18355.11850956004</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-18535.34970956004</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -40579,10 +40579,14 @@
         <v>-182526.0432571301</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>217.6</v>
+      </c>
       <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
@@ -40612,11 +40616,19 @@
         <v>-182704.2233571301</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40645,11 +40657,19 @@
         <v>-182600.4530571301</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -40678,11 +40698,19 @@
         <v>-182867.6450571301</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40711,11 +40739,19 @@
         <v>-193122.0581571301</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -40744,11 +40780,19 @@
         <v>-188984.2427571301</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>217.2</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -40777,11 +40821,19 @@
         <v>-187888.9067571301</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -40810,11 +40862,19 @@
         <v>-175738.3293571301</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -40843,11 +40903,19 @@
         <v>-177311.0642571301</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -40876,11 +40944,19 @@
         <v>-172519.3186571301</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -40909,11 +40985,19 @@
         <v>-175299.8010571301</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -40942,11 +41026,19 @@
         <v>-165103.5212571301</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -40975,11 +41067,19 @@
         <v>-165103.5212571301</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41011,8 +41111,14 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41044,8 +41150,14 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41077,8 +41189,14 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41110,8 +41228,14 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41143,8 +41267,14 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41176,8 +41306,14 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41209,8 +41345,14 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41242,8 +41384,14 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41275,8 +41423,14 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41308,8 +41462,14 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41341,8 +41501,14 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41374,8 +41540,14 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41407,8 +41579,14 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41440,8 +41618,14 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41473,8 +41657,14 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="J1245" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41503,11 +41693,19 @@
         <v>-177389.4992571301</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41539,8 +41737,14 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="J1247" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41572,8 +41776,14 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41605,8 +41815,14 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41638,8 +41854,14 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41668,15 +41890,17 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>217.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="n">
         <v>217.6</v>
       </c>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41715,7 +41939,7 @@
       </c>
       <c r="K1252" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1252" t="n">
